--- a/PhasomeIt_data/summary_table_final.xlsx
+++ b/PhasomeIt_data/summary_table_final.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u5501917/Documents/PhD/PhD/PhasomeIt_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C469B66B-9A0C-A042-A006-2116388F23B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71ED068E-7A14-F04D-8981-A0C49F6EA30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15200" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="246">
   <si>
     <t>ID</t>
   </si>
@@ -682,7 +695,82 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Is in RNAseq, but logexp(MAX/MIN) is infinite as the lowest expression was 0</t>
+    <t>Useful references</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0378111999001596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reductions in polyG tract reduce promoter activity - our rnaseq data confirms that. </t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1365-2958.1994.tb00416.x</t>
+  </si>
+  <si>
+    <t>Paper suggests tracts size 12-13 are high exp, 11 and 14 intermediate, &lt;11 and &gt;14 off. Data loosely supports this with osme noise. Opc is important for ashesion and invasion so may be worth confirming the repeat tract with genescan, especially as unable to cofnrim with rnaseq</t>
+  </si>
+  <si>
+    <t>No info on tracts - not been looked into specifically as a PV gene before in the literature</t>
+  </si>
+  <si>
+    <t>Little information available on PV in carB. Not been investigated</t>
+  </si>
+  <si>
+    <t>significant in rna</t>
+  </si>
+  <si>
+    <t>Is in RNAseq, but logexp(MAX/MIN) is undefined as the lowest expression was 0</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41467-018-07235-5</t>
+  </si>
+  <si>
+    <t>involved in iron acquisition and phase variation identified in N. lactamica, but not much more relevant information. repeats of 10 seem higher in expression than the two isolates with 8 or 9 repeats, but expression counts are very low overall so not clear</t>
+  </si>
+  <si>
+    <t>No correlation in repeats</t>
+  </si>
+  <si>
+    <t>Ref notes, and qual correlation with rna</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5167154/</t>
+  </si>
+  <si>
+    <t>trna folding/chaperone and pseudouridinylation, no information about phase variation</t>
+  </si>
+  <si>
+    <t>No correlation in repeats with rnaseq data and no papers discussing pv in this protein, or aaRSs in general</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/femspd/article/75/6/ftx080/3966716?login=true</t>
+  </si>
+  <si>
+    <t>Doesn’t appear to be much correlation in repeat tract. Interestingly this gene is regulated by modA in N. gonorrhoae, which is switched off in all our isolates, yet this gene is significantly differently expressed. No information about pv in recN itself however</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5320596/#:~:text=Phase%20variation%20of%20fetA%20is,et%20al.%2C%202000).</t>
+  </si>
+  <si>
+    <t>Confirmed PV. Optimal length in N. gonnorhoae is 12, with large redfuction at 11 and 13 then very low at 10. Our data shows a peak in expression at 9 repeats, despite no other mutation in the promoter that could affect promoter spacing or recognition. Maybe the optimal length in n. meningitidis is different to n. gonorrhoae? Expression is very low in all the isolates (1-17 reads) so maybe its just low expression in all of them</t>
+  </si>
+  <si>
+    <t>No correlation and no information on repeat tract length in the gene</t>
+  </si>
+  <si>
+    <t>No correlation and extremely low repeat number, unlikely to be PV</t>
+  </si>
+  <si>
+    <t>Weak correlation between the sum of both tracts and the expression. 6 total repeats is lower than all the others by about 25%.  Others have 10-11 repeats. Exception is 5 repeats in 28269 which has the second highest expression. Predicted PV in a paper but not much other information available</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5084427/#MOESM5</t>
+  </si>
+  <si>
+    <t>No correlation and no papers discussing PV in trna synthetases in general or this one specifically</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No correlation. </t>
   </si>
 </sst>
 </file>
@@ -698,7 +786,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,6 +796,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,8 +820,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,15 +1118,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A7" sqref="A7"/>
+      <selection pane="topRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1063,9 +1159,15 @@
       <c r="J1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="K1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
@@ -1083,7 +1185,7 @@
       <c r="G2">
         <v>8</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>4.6885851317953096</v>
       </c>
       <c r="I2">
@@ -1092,8 +1194,12 @@
       <c r="J2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M2" s="2"/>
+      <c r="N2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -1115,7 +1221,7 @@
       <c r="G3">
         <v>8</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>2.44478484267289</v>
       </c>
       <c r="I3">
@@ -1125,8 +1231,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
@@ -1147,7 +1253,7 @@
       <c r="G4">
         <v>8</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>4.9108925261660099</v>
       </c>
       <c r="I4">
@@ -1157,8 +1263,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B5" t="s">
@@ -1179,7 +1285,7 @@
       <c r="G5">
         <v>8</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>2.3656494723166799</v>
       </c>
       <c r="I5">
@@ -1189,8 +1295,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
@@ -1208,7 +1314,7 @@
       <c r="G6">
         <v>7</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>4.67646085520665</v>
       </c>
       <c r="I6">
@@ -1218,8 +1324,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B7" t="s">
@@ -1237,7 +1343,7 @@
       <c r="G7">
         <v>7</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>6.7719610155224101</v>
       </c>
       <c r="I7">
@@ -1247,7 +1353,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1269,7 +1375,7 @@
       <c r="G8">
         <v>7</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>1.8073549220576</v>
       </c>
       <c r="I8">
@@ -1279,7 +1385,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -1301,7 +1407,7 @@
       <c r="G9">
         <v>8</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>3.7548875021634598</v>
       </c>
       <c r="I9">
@@ -1311,8 +1417,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B10" t="s">
@@ -1330,15 +1436,15 @@
       <c r="G10">
         <v>6</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>6.5391588111080301</v>
       </c>
       <c r="J10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B11" t="s">
@@ -1356,15 +1462,15 @@
       <c r="G11">
         <v>5</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>4.3291235962915602</v>
       </c>
       <c r="J11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>118</v>
       </c>
       <c r="D12" t="s">
@@ -1379,14 +1485,14 @@
       <c r="G12">
         <v>8</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>3.6537716586397999</v>
       </c>
       <c r="J12" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1408,14 +1514,14 @@
       <c r="G13">
         <v>8</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>2.0588936890535599</v>
       </c>
       <c r="J13" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1437,15 +1543,15 @@
       <c r="G14">
         <v>8</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B15" t="s">
@@ -1466,14 +1572,14 @@
       <c r="G15">
         <v>8</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>1.9860608090421199</v>
       </c>
       <c r="J15" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -1495,15 +1601,15 @@
       <c r="G16">
         <v>8</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>1.6880559936852499</v>
       </c>
       <c r="J16" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B17" t="s">
@@ -1524,15 +1630,15 @@
       <c r="G17">
         <v>8</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>1.4474589769712201</v>
       </c>
       <c r="J17" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B18" t="s">
@@ -1553,15 +1659,15 @@
       <c r="G18">
         <v>6</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18">
         <v>1.0276917338690399</v>
       </c>
       <c r="J18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="s">
@@ -1582,14 +1688,14 @@
       <c r="G19">
         <v>6</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19">
         <v>1.0276917338690399</v>
       </c>
       <c r="J19" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>121</v>
       </c>
@@ -1611,14 +1717,14 @@
       <c r="G20">
         <v>8</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20">
         <v>0.94753258010586405</v>
       </c>
       <c r="J20" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1640,14 +1746,17 @@
       <c r="G21">
         <v>8</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
         <v>0.88752527074158705</v>
       </c>
       <c r="J21" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -1669,14 +1778,17 @@
       <c r="G22">
         <v>8</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
         <v>0.58944989171346995</v>
       </c>
       <c r="J22" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -1698,14 +1810,14 @@
       <c r="G23">
         <v>8</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23">
         <v>0.49052769886310699</v>
       </c>
       <c r="J23" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1727,14 +1839,14 @@
       <c r="G24">
         <v>8</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24">
         <v>0.43295940727610599</v>
       </c>
       <c r="J24" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1760,7 +1872,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1786,7 +1898,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -1812,7 +1924,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -1838,7 +1950,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -1864,7 +1976,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>104</v>
       </c>
@@ -1890,7 +2002,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -1916,7 +2028,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -1942,7 +2054,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -1962,7 +2074,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>174</v>
       </c>
@@ -1984,18 +2096,21 @@
       <c r="G34">
         <v>8</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34">
         <v>3.5607149544744701</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <v>1.14289199655955E-2</v>
       </c>
       <c r="J34" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="L34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B35" t="s">
@@ -2016,17 +2131,23 @@
       <c r="G35">
         <v>6</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35">
         <v>2.7796348101309998</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="1">
         <v>4.5172554684918202E-2</v>
       </c>
       <c r="J35" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>221</v>
+      </c>
+      <c r="L35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>205</v>
       </c>
@@ -2048,7 +2169,7 @@
       <c r="G36">
         <v>8</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36">
         <v>0.50768678724451799</v>
       </c>
       <c r="I36">
@@ -2057,9 +2178,12 @@
       <c r="J36" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="L36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B37" t="s">
@@ -2080,7 +2204,7 @@
       <c r="G37">
         <v>8</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37">
         <v>7.2426448453628902</v>
       </c>
       <c r="I37">
@@ -2089,8 +2213,14 @@
       <c r="J37" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
+        <v>223</v>
+      </c>
+      <c r="L37" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>193</v>
       </c>
@@ -2112,7 +2242,7 @@
       <c r="G38">
         <v>8</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38">
         <v>0.59233422959349802</v>
       </c>
       <c r="I38">
@@ -2121,8 +2251,14 @@
       <c r="J38" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" t="s">
+        <v>243</v>
+      </c>
+      <c r="L38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>193</v>
       </c>
@@ -2138,7 +2274,7 @@
       <c r="G39">
         <v>8</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39">
         <v>0.59233422959349802</v>
       </c>
       <c r="I39">
@@ -2147,8 +2283,14 @@
       <c r="J39" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" t="s">
+        <v>243</v>
+      </c>
+      <c r="L39" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>155</v>
       </c>
@@ -2170,7 +2312,7 @@
       <c r="G40">
         <v>7</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40">
         <v>2.0995356735509101</v>
       </c>
       <c r="I40">
@@ -2179,8 +2321,14 @@
       <c r="J40" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40" t="s">
+        <v>229</v>
+      </c>
+      <c r="L40" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>139</v>
       </c>
@@ -2206,10 +2354,13 @@
         <v>0.45582362824428602</v>
       </c>
       <c r="J41" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="L41" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>208</v>
       </c>
@@ -2231,7 +2382,7 @@
       <c r="G42">
         <v>7</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42">
         <v>0.80330808899490203</v>
       </c>
       <c r="I42">
@@ -2240,8 +2391,14 @@
       <c r="J42" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42" t="s">
+        <v>233</v>
+      </c>
+      <c r="L42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>189</v>
       </c>
@@ -2263,7 +2420,7 @@
       <c r="G43">
         <v>8</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43">
         <v>0.56449839816143998</v>
       </c>
       <c r="I43">
@@ -2272,9 +2429,12 @@
       <c r="J43" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="L43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B44" t="s">
@@ -2295,7 +2455,7 @@
       <c r="G44">
         <v>7</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44">
         <v>1.39530128121758</v>
       </c>
       <c r="I44">
@@ -2304,8 +2464,14 @@
       <c r="J44" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44" t="s">
+        <v>236</v>
+      </c>
+      <c r="L44" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>170</v>
       </c>
@@ -2327,7 +2493,7 @@
       <c r="G45">
         <v>7</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45">
         <v>4.08746284125034</v>
       </c>
       <c r="I45">
@@ -2336,8 +2502,14 @@
       <c r="J45" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>238</v>
+      </c>
+      <c r="L45" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>201</v>
       </c>
@@ -2359,7 +2531,7 @@
       <c r="G46">
         <v>5</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46">
         <v>1.0681715026415699</v>
       </c>
       <c r="I46">
@@ -2368,8 +2540,11 @@
       <c r="J46" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L46" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>178</v>
       </c>
@@ -2391,7 +2566,7 @@
       <c r="G47">
         <v>7</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47">
         <v>1.32192809488736</v>
       </c>
       <c r="I47">
@@ -2400,8 +2575,11 @@
       <c r="J47" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L47" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -2423,7 +2601,7 @@
       <c r="G48">
         <v>8</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48">
         <v>3.32192809488736</v>
       </c>
       <c r="J48" t="s">
@@ -2452,7 +2630,7 @@
       <c r="G49">
         <v>8</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49">
         <v>1.7935491225325699</v>
       </c>
       <c r="J49" t="s">
@@ -2481,7 +2659,7 @@
       <c r="G50">
         <v>8</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50">
         <v>1.6880559936852499</v>
       </c>
       <c r="J50" t="s">
@@ -2510,7 +2688,7 @@
       <c r="G51">
         <v>8</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51">
         <v>1.45943161863729</v>
       </c>
       <c r="J51" t="s">
@@ -2539,7 +2717,7 @@
       <c r="G52">
         <v>7</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52">
         <v>0.80735492205760395</v>
       </c>
       <c r="J52" t="s">
@@ -2568,7 +2746,7 @@
       <c r="G53">
         <v>8</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53">
         <v>0.46712601042729801</v>
       </c>
       <c r="J53" t="s">
@@ -2597,7 +2775,7 @@
       <c r="G54">
         <v>8</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54">
         <v>0.37196877738695699</v>
       </c>
       <c r="J54" t="s">

--- a/PhasomeIt_data/summary_table_final.xlsx
+++ b/PhasomeIt_data/summary_table_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u5501917/Documents/PhD/PhD/PhasomeIt_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71ED068E-7A14-F04D-8981-A0C49F6EA30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA1F0E5-E37A-6B4A-B759-8CAC7DD92E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="15360" windowHeight="18760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="254">
   <si>
     <t>ID</t>
   </si>
@@ -771,6 +771,30 @@
   </si>
   <si>
     <t xml:space="preserve">No correlation. </t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/full/10.1111/j.1574-695X.2002.tb00633.x?sid=nlm%3Apubmed</t>
+  </si>
+  <si>
+    <t>11 bases is ON, matches our data well</t>
+  </si>
+  <si>
+    <t>7, 10, 13 is ON, matches our data</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0069746</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7157529/#dataS1, https://journals.plos.org/plospathogens/article?id=10.1371/journal.ppat.1000400</t>
+  </si>
+  <si>
+    <t>13 and multiples of 3 after that are ON. Has a distal and proximal ATG so different products can be made. OFF in most of our isolates, confirmed by earlier Bayliss paper. We do have 2 isolates at 19 repeats and one at 7 repeats. The 7 repeats are ON as confirmed by Bayliss paper, but in our expression data has v low expression. 28287 was checked in Bayliss paper, predicted at 19 repeats and in OFF state, although this multiple of 3 should be on. Check with Chris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 is on in H.influenzae, not much work done to confirm in N. meningitidis. Our data doesn’t seem to match, with multiples of 3 either side of 14 having lower expression that other rpeeat numbers </t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S258900422301862X</t>
   </si>
 </sst>
 </file>
@@ -1120,10 +1144,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="L23" sqref="L23"/>
+      <selection pane="topRight" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1230,6 +1254,12 @@
       <c r="J3" t="s">
         <v>214</v>
       </c>
+      <c r="K3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1294,6 +1324,12 @@
       <c r="J5" t="s">
         <v>214</v>
       </c>
+      <c r="K5" t="s">
+        <v>249</v>
+      </c>
+      <c r="L5" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -1384,6 +1420,12 @@
       <c r="J8" t="s">
         <v>214</v>
       </c>
+      <c r="K8" t="s">
+        <v>250</v>
+      </c>
+      <c r="L8" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1415,6 +1457,12 @@
       </c>
       <c r="J9" t="s">
         <v>214</v>
+      </c>
+      <c r="K9" t="s">
+        <v>253</v>
+      </c>
+      <c r="L9" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
